--- a/Others/Kit File/Bank Statement.xlsx
+++ b/Others/Kit File/Bank Statement.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Capital" sheetId="47" r:id="rId3"/>
     <sheet name="Market Due" sheetId="48" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Distributor:Banglalink</t>
-  </si>
-  <si>
-    <t>Month :January''2021</t>
   </si>
   <si>
     <t>DATE</t>
@@ -162,16 +159,19 @@
   <si>
     <t>Value</t>
   </si>
+  <si>
+    <t>Month :May''2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1485,6 +1485,91 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,57 +1592,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1638,44 +1672,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1684,14 +1684,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1708,6 +1701,11 @@
       <color rgb="FFD8D8D8"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1786,6 +1784,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1820,6 +1819,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1995,85 +1995,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y320"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="17" width="9.140625" style="99"/>
     <col min="18" max="18" width="9.140625" style="100"/>
     <col min="19" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-    </row>
-    <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="161" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+    </row>
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="161"/>
-    </row>
-    <row r="3" spans="1:25" s="101" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="170" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="172"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+    </row>
+    <row r="3" spans="1:25" s="101" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="174" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="176"/>
       <c r="T3" s="102"/>
       <c r="U3" s="103"/>
       <c r="V3" s="103"/>
@@ -2081,60 +2081,60 @@
       <c r="X3" s="103"/>
       <c r="Y3" s="104"/>
     </row>
-    <row r="4" spans="1:25" s="104" customFormat="1">
-      <c r="A4" s="162" t="s">
+    <row r="4" spans="1:25" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="164" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="164" t="s">
+      <c r="C4" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="164" t="s">
+      <c r="D4" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="E4" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="F4" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="G4" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="158" t="s">
+      <c r="H4" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="158" t="s">
+      <c r="I4" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="158" t="s">
+      <c r="J4" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="158" t="s">
+      <c r="K4" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="173" t="s">
+      <c r="L4" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="150" t="s">
+      <c r="M4" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="152" t="s">
+      <c r="N4" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="154" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="156" t="s">
+      <c r="P4" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="166" t="s">
+      <c r="Q4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="168" t="s">
+      <c r="R4" s="105" t="s">
         <v>34</v>
-      </c>
-      <c r="R4" s="105" t="s">
-        <v>35</v>
       </c>
       <c r="T4" s="102"/>
       <c r="U4" s="103"/>
@@ -2142,26 +2142,26 @@
       <c r="W4" s="103"/>
       <c r="X4" s="103"/>
     </row>
-    <row r="5" spans="1:25" s="104" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="169"/>
+    <row r="5" spans="1:25" s="104" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="165"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="173"/>
       <c r="R5" s="107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T5" s="108"/>
       <c r="U5" s="109"/>
@@ -2170,7 +2170,7 @@
       <c r="X5" s="109"/>
       <c r="Y5" s="110"/>
     </row>
-    <row r="6" spans="1:25" s="110" customFormat="1">
+    <row r="6" spans="1:25" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="111"/>
       <c r="B6" s="112"/>
       <c r="C6" s="113"/>
@@ -2199,7 +2199,7 @@
       <c r="W6" s="109"/>
       <c r="X6" s="103"/>
     </row>
-    <row r="7" spans="1:25" s="110" customFormat="1">
+    <row r="7" spans="1:25" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="111"/>
       <c r="B7" s="112"/>
       <c r="C7" s="113"/>
@@ -2228,7 +2228,7 @@
       <c r="W7" s="109"/>
       <c r="X7" s="109"/>
     </row>
-    <row r="8" spans="1:25" s="110" customFormat="1">
+    <row r="8" spans="1:25" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="111"/>
       <c r="B8" s="117"/>
       <c r="C8" s="118"/>
@@ -2254,12 +2254,12 @@
       <c r="T8" s="121"/>
       <c r="U8" s="121"/>
       <c r="V8" s="103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W8" s="109"/>
       <c r="X8" s="103"/>
     </row>
-    <row r="9" spans="1:25" s="110" customFormat="1">
+    <row r="9" spans="1:25" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="111"/>
       <c r="B9" s="117"/>
       <c r="C9" s="118"/>
@@ -2288,7 +2288,7 @@
       <c r="W9" s="109"/>
       <c r="X9" s="109"/>
     </row>
-    <row r="10" spans="1:25" s="110" customFormat="1">
+    <row r="10" spans="1:25" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="111"/>
       <c r="B10" s="117"/>
       <c r="C10" s="118"/>
@@ -2317,7 +2317,7 @@
       <c r="W10" s="109"/>
       <c r="X10" s="103"/>
     </row>
-    <row r="11" spans="1:25" s="110" customFormat="1">
+    <row r="11" spans="1:25" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111"/>
       <c r="B11" s="117"/>
       <c r="C11" s="118"/>
@@ -2346,7 +2346,7 @@
       <c r="W11" s="109"/>
       <c r="X11" s="109"/>
     </row>
-    <row r="12" spans="1:25" s="110" customFormat="1">
+    <row r="12" spans="1:25" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="111"/>
       <c r="B12" s="117"/>
       <c r="C12" s="118"/>
@@ -2375,7 +2375,7 @@
       <c r="W12" s="109"/>
       <c r="X12" s="103"/>
     </row>
-    <row r="13" spans="1:25" s="110" customFormat="1">
+    <row r="13" spans="1:25" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111"/>
       <c r="B13" s="117"/>
       <c r="C13" s="118"/>
@@ -2404,7 +2404,7 @@
       <c r="W13" s="109"/>
       <c r="X13" s="109"/>
     </row>
-    <row r="14" spans="1:25" s="110" customFormat="1">
+    <row r="14" spans="1:25" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="111"/>
       <c r="B14" s="117"/>
       <c r="C14" s="118"/>
@@ -2433,7 +2433,7 @@
       <c r="W14" s="109"/>
       <c r="X14" s="103"/>
     </row>
-    <row r="15" spans="1:25" s="110" customFormat="1">
+    <row r="15" spans="1:25" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="111"/>
       <c r="B15" s="117"/>
       <c r="C15" s="118"/>
@@ -2462,7 +2462,7 @@
       <c r="W15" s="109"/>
       <c r="X15" s="109"/>
     </row>
-    <row r="16" spans="1:25" s="110" customFormat="1">
+    <row r="16" spans="1:25" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="111"/>
       <c r="B16" s="117"/>
       <c r="C16" s="118"/>
@@ -2491,7 +2491,7 @@
       <c r="W16" s="109"/>
       <c r="X16" s="103"/>
     </row>
-    <row r="17" spans="1:24" s="110" customFormat="1">
+    <row r="17" spans="1:24" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="111"/>
       <c r="B17" s="117"/>
       <c r="C17" s="118"/>
@@ -2520,7 +2520,7 @@
       <c r="W17" s="109"/>
       <c r="X17" s="109"/>
     </row>
-    <row r="18" spans="1:24" s="110" customFormat="1">
+    <row r="18" spans="1:24" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111"/>
       <c r="B18" s="117"/>
       <c r="C18" s="118"/>
@@ -2549,7 +2549,7 @@
       <c r="W18" s="109"/>
       <c r="X18" s="103"/>
     </row>
-    <row r="19" spans="1:24" s="110" customFormat="1">
+    <row r="19" spans="1:24" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="111"/>
       <c r="B19" s="117"/>
       <c r="C19" s="118"/>
@@ -2578,7 +2578,7 @@
       <c r="W19" s="109"/>
       <c r="X19" s="109"/>
     </row>
-    <row r="20" spans="1:24" s="110" customFormat="1">
+    <row r="20" spans="1:24" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="111"/>
       <c r="B20" s="117"/>
       <c r="C20" s="118"/>
@@ -2607,7 +2607,7 @@
       <c r="W20" s="109"/>
       <c r="X20" s="103"/>
     </row>
-    <row r="21" spans="1:24" s="110" customFormat="1">
+    <row r="21" spans="1:24" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="111"/>
       <c r="B21" s="117"/>
       <c r="C21" s="118"/>
@@ -2632,7 +2632,7 @@
       <c r="S21" s="116"/>
       <c r="T21" s="71"/>
     </row>
-    <row r="22" spans="1:24" s="110" customFormat="1">
+    <row r="22" spans="1:24" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="111"/>
       <c r="B22" s="117"/>
       <c r="C22" s="118"/>
@@ -2657,7 +2657,7 @@
       <c r="S22" s="116"/>
       <c r="T22" s="71"/>
     </row>
-    <row r="23" spans="1:24" s="119" customFormat="1">
+    <row r="23" spans="1:24" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="111"/>
       <c r="B23" s="117"/>
       <c r="C23" s="118"/>
@@ -2682,7 +2682,7 @@
       <c r="S23" s="123"/>
       <c r="T23" s="71"/>
     </row>
-    <row r="24" spans="1:24" s="110" customFormat="1">
+    <row r="24" spans="1:24" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="111"/>
       <c r="B24" s="117"/>
       <c r="C24" s="118"/>
@@ -2710,7 +2710,7 @@
       <c r="W24" s="124"/>
       <c r="X24" s="124"/>
     </row>
-    <row r="25" spans="1:24" s="119" customFormat="1">
+    <row r="25" spans="1:24" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="111"/>
       <c r="B25" s="117"/>
       <c r="C25" s="118"/>
@@ -2735,7 +2735,7 @@
       <c r="S25" s="123"/>
       <c r="T25" s="71"/>
     </row>
-    <row r="26" spans="1:24" s="110" customFormat="1">
+    <row r="26" spans="1:24" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="111"/>
       <c r="B26" s="117"/>
       <c r="C26" s="118"/>
@@ -2760,7 +2760,7 @@
       <c r="S26" s="116"/>
       <c r="T26" s="71"/>
     </row>
-    <row r="27" spans="1:24" s="110" customFormat="1">
+    <row r="27" spans="1:24" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="118"/>
       <c r="B27" s="117"/>
       <c r="C27" s="118"/>
@@ -2785,7 +2785,7 @@
       <c r="S27" s="116"/>
       <c r="T27" s="71"/>
     </row>
-    <row r="28" spans="1:24" s="110" customFormat="1">
+    <row r="28" spans="1:24" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="118"/>
       <c r="B28" s="117"/>
       <c r="C28" s="118"/>
@@ -2812,7 +2812,7 @@
       <c r="U28" s="125"/>
       <c r="V28" s="125"/>
     </row>
-    <row r="29" spans="1:24" s="110" customFormat="1">
+    <row r="29" spans="1:24" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="118"/>
       <c r="B29" s="117"/>
       <c r="C29" s="118"/>
@@ -2839,7 +2839,7 @@
       <c r="U29" s="126"/>
       <c r="V29" s="126"/>
     </row>
-    <row r="30" spans="1:24" s="110" customFormat="1">
+    <row r="30" spans="1:24" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="118"/>
       <c r="B30" s="117"/>
       <c r="C30" s="118"/>
@@ -2866,7 +2866,7 @@
       <c r="U30" s="125"/>
       <c r="V30" s="125"/>
     </row>
-    <row r="31" spans="1:24" s="110" customFormat="1">
+    <row r="31" spans="1:24" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="118"/>
       <c r="B31" s="117"/>
       <c r="C31" s="118"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="S31" s="116"/>
     </row>
-    <row r="32" spans="1:24" s="119" customFormat="1">
+    <row r="32" spans="1:24" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="118"/>
       <c r="B32" s="117"/>
       <c r="C32" s="118"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="S32" s="123"/>
     </row>
-    <row r="33" spans="1:19" s="110" customFormat="1">
+    <row r="33" spans="1:19" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="118"/>
       <c r="B33" s="117"/>
       <c r="C33" s="118"/>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="S33" s="116"/>
     </row>
-    <row r="34" spans="1:19" s="110" customFormat="1">
+    <row r="34" spans="1:19" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="118"/>
       <c r="B34" s="117"/>
       <c r="C34" s="118"/>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="S34" s="116"/>
     </row>
-    <row r="35" spans="1:19" s="110" customFormat="1">
+    <row r="35" spans="1:19" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="118"/>
       <c r="B35" s="117"/>
       <c r="C35" s="118"/>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="S35" s="116"/>
     </row>
-    <row r="36" spans="1:19" s="110" customFormat="1" ht="15.75" thickBot="1">
+    <row r="36" spans="1:19" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="118"/>
       <c r="B36" s="128"/>
       <c r="C36" s="129"/>
@@ -3010,9 +3010,9 @@
       </c>
       <c r="S36" s="116"/>
     </row>
-    <row r="37" spans="1:19" s="137" customFormat="1" ht="15.75" thickBot="1">
+    <row r="37" spans="1:19" s="137" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="133">
         <f>SUM(B6:B36)</f>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="138"/>
       <c r="B38" s="139"/>
       <c r="C38" s="139"/>
@@ -3103,1972 +3103,1972 @@
       <c r="Q38" s="140"/>
       <c r="R38" s="141"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F39" s="142"/>
       <c r="G39" s="142"/>
       <c r="H39" s="142"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="142"/>
       <c r="B40" s="142"/>
       <c r="C40" s="142"/>
       <c r="D40" s="142"/>
       <c r="E40" s="142"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="142"/>
       <c r="B41" s="142"/>
       <c r="C41" s="142"/>
       <c r="D41" s="142"/>
       <c r="E41" s="142"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="142"/>
       <c r="B42" s="142"/>
       <c r="C42" s="142"/>
       <c r="D42" s="142"/>
       <c r="E42" s="142"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="142"/>
       <c r="B43" s="142"/>
       <c r="C43" s="142"/>
       <c r="D43" s="142"/>
       <c r="E43" s="142"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="142"/>
       <c r="B44" s="142"/>
       <c r="C44" s="142"/>
       <c r="D44" s="142"/>
       <c r="E44" s="142"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="142"/>
       <c r="B45" s="142"/>
       <c r="C45" s="142"/>
       <c r="D45" s="142"/>
       <c r="E45" s="142"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="142"/>
       <c r="B46" s="142"/>
       <c r="C46" s="142"/>
       <c r="D46" s="142"/>
       <c r="E46" s="142"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="142"/>
       <c r="B47" s="142"/>
       <c r="C47" s="142"/>
       <c r="D47" s="142"/>
       <c r="E47" s="142"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="142"/>
       <c r="B48" s="142"/>
       <c r="C48" s="142"/>
       <c r="D48" s="142"/>
       <c r="E48" s="142"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="142"/>
       <c r="B49" s="142"/>
       <c r="C49" s="142"/>
       <c r="D49" s="142"/>
       <c r="E49" s="142"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="142"/>
       <c r="B50" s="142"/>
       <c r="C50" s="142"/>
       <c r="D50" s="142"/>
       <c r="E50" s="142"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="142"/>
       <c r="B51" s="142"/>
       <c r="C51" s="142"/>
       <c r="D51" s="142"/>
       <c r="E51" s="142"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="142"/>
       <c r="B52" s="142"/>
       <c r="C52" s="142"/>
       <c r="D52" s="142"/>
       <c r="E52" s="142"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="142"/>
       <c r="B53" s="142"/>
       <c r="C53" s="142"/>
       <c r="D53" s="142"/>
       <c r="E53" s="142"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="142"/>
       <c r="B54" s="142"/>
       <c r="C54" s="142"/>
       <c r="D54" s="142"/>
       <c r="E54" s="142"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="142"/>
       <c r="B55" s="142"/>
       <c r="C55" s="142"/>
       <c r="D55" s="142"/>
       <c r="E55" s="142"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="142"/>
       <c r="B56" s="142"/>
       <c r="C56" s="142"/>
       <c r="D56" s="142"/>
       <c r="E56" s="142"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="142"/>
       <c r="B57" s="142"/>
       <c r="C57" s="142"/>
       <c r="D57" s="142"/>
       <c r="E57" s="142"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="142"/>
       <c r="B58" s="142"/>
       <c r="C58" s="142"/>
       <c r="D58" s="142"/>
       <c r="E58" s="142"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="142"/>
       <c r="B59" s="142"/>
       <c r="C59" s="142"/>
       <c r="D59" s="142"/>
       <c r="E59" s="142"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="142"/>
       <c r="B60" s="142"/>
       <c r="C60" s="142"/>
       <c r="D60" s="142"/>
       <c r="E60" s="142"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="142"/>
       <c r="B61" s="142"/>
       <c r="C61" s="142"/>
       <c r="D61" s="142"/>
       <c r="E61" s="142"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="142"/>
       <c r="B62" s="142"/>
       <c r="C62" s="142"/>
       <c r="D62" s="142"/>
       <c r="E62" s="142"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="142"/>
       <c r="B63" s="142"/>
       <c r="C63" s="142"/>
       <c r="D63" s="142"/>
       <c r="E63" s="142"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="142"/>
       <c r="B64" s="142"/>
       <c r="C64" s="142"/>
       <c r="D64" s="142"/>
       <c r="E64" s="142"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="142"/>
       <c r="B65" s="142"/>
       <c r="C65" s="142"/>
       <c r="D65" s="142"/>
       <c r="E65" s="142"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="142"/>
       <c r="B66" s="142"/>
       <c r="C66" s="142"/>
       <c r="D66" s="142"/>
       <c r="E66" s="142"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="142"/>
       <c r="B67" s="142"/>
       <c r="C67" s="142"/>
       <c r="D67" s="142"/>
       <c r="E67" s="142"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="142"/>
       <c r="B68" s="142"/>
       <c r="C68" s="142"/>
       <c r="D68" s="142"/>
       <c r="E68" s="142"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="142"/>
       <c r="B69" s="142"/>
       <c r="C69" s="142"/>
       <c r="D69" s="142"/>
       <c r="E69" s="142"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="142"/>
       <c r="B70" s="142"/>
       <c r="C70" s="142"/>
       <c r="D70" s="142"/>
       <c r="E70" s="142"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="142"/>
       <c r="B71" s="142"/>
       <c r="C71" s="142"/>
       <c r="D71" s="142"/>
       <c r="E71" s="142"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="142"/>
       <c r="B72" s="142"/>
       <c r="C72" s="142"/>
       <c r="D72" s="142"/>
       <c r="E72" s="142"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="142"/>
       <c r="B73" s="142"/>
       <c r="C73" s="142"/>
       <c r="D73" s="142"/>
       <c r="E73" s="142"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="142"/>
       <c r="B74" s="142"/>
       <c r="C74" s="142"/>
       <c r="D74" s="142"/>
       <c r="E74" s="142"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="142"/>
       <c r="B75" s="142"/>
       <c r="C75" s="142"/>
       <c r="D75" s="142"/>
       <c r="E75" s="142"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="142"/>
       <c r="B76" s="142"/>
       <c r="C76" s="142"/>
       <c r="D76" s="142"/>
       <c r="E76" s="142"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="142"/>
       <c r="B77" s="142"/>
       <c r="C77" s="142"/>
       <c r="D77" s="142"/>
       <c r="E77" s="142"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="142"/>
       <c r="B78" s="142"/>
       <c r="C78" s="142"/>
       <c r="D78" s="142"/>
       <c r="E78" s="142"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="142"/>
       <c r="B79" s="142"/>
       <c r="C79" s="142"/>
       <c r="D79" s="142"/>
       <c r="E79" s="142"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="142"/>
       <c r="B80" s="142"/>
       <c r="C80" s="142"/>
       <c r="D80" s="142"/>
       <c r="E80" s="142"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="142"/>
       <c r="B81" s="142"/>
       <c r="C81" s="142"/>
       <c r="D81" s="142"/>
       <c r="E81" s="142"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="142"/>
       <c r="B82" s="142"/>
       <c r="C82" s="142"/>
       <c r="D82" s="142"/>
       <c r="E82" s="142"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="142"/>
       <c r="B83" s="142"/>
       <c r="C83" s="142"/>
       <c r="D83" s="142"/>
       <c r="E83" s="142"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="142"/>
       <c r="B84" s="142"/>
       <c r="C84" s="142"/>
       <c r="D84" s="142"/>
       <c r="E84" s="142"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="142"/>
       <c r="B85" s="142"/>
       <c r="C85" s="142"/>
       <c r="D85" s="142"/>
       <c r="E85" s="142"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="142"/>
       <c r="B86" s="142"/>
       <c r="C86" s="142"/>
       <c r="D86" s="142"/>
       <c r="E86" s="142"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="142"/>
       <c r="B87" s="142"/>
       <c r="C87" s="142"/>
       <c r="D87" s="142"/>
       <c r="E87" s="142"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="142"/>
       <c r="B88" s="142"/>
       <c r="C88" s="142"/>
       <c r="D88" s="142"/>
       <c r="E88" s="142"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="142"/>
       <c r="B89" s="142"/>
       <c r="C89" s="142"/>
       <c r="D89" s="142"/>
       <c r="E89" s="142"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="142"/>
       <c r="B90" s="142"/>
       <c r="C90" s="142"/>
       <c r="D90" s="142"/>
       <c r="E90" s="142"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="142"/>
       <c r="B91" s="142"/>
       <c r="C91" s="142"/>
       <c r="D91" s="142"/>
       <c r="E91" s="142"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="142"/>
       <c r="B92" s="142"/>
       <c r="C92" s="142"/>
       <c r="D92" s="142"/>
       <c r="E92" s="142"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="142"/>
       <c r="B93" s="142"/>
       <c r="C93" s="142"/>
       <c r="D93" s="142"/>
       <c r="E93" s="142"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="142"/>
       <c r="B94" s="142"/>
       <c r="C94" s="142"/>
       <c r="D94" s="142"/>
       <c r="E94" s="142"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="142"/>
       <c r="B95" s="142"/>
       <c r="C95" s="142"/>
       <c r="D95" s="142"/>
       <c r="E95" s="142"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="142"/>
       <c r="B96" s="142"/>
       <c r="C96" s="142"/>
       <c r="D96" s="142"/>
       <c r="E96" s="142"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="142"/>
       <c r="B97" s="142"/>
       <c r="C97" s="142"/>
       <c r="D97" s="142"/>
       <c r="E97" s="142"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="142"/>
       <c r="B98" s="142"/>
       <c r="C98" s="142"/>
       <c r="D98" s="142"/>
       <c r="E98" s="142"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="142"/>
       <c r="B99" s="142"/>
       <c r="C99" s="142"/>
       <c r="D99" s="142"/>
       <c r="E99" s="142"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="142"/>
       <c r="B100" s="142"/>
       <c r="C100" s="142"/>
       <c r="D100" s="142"/>
       <c r="E100" s="142"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="142"/>
       <c r="B101" s="142"/>
       <c r="C101" s="142"/>
       <c r="D101" s="142"/>
       <c r="E101" s="142"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="142"/>
       <c r="B102" s="142"/>
       <c r="C102" s="142"/>
       <c r="D102" s="142"/>
       <c r="E102" s="142"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="142"/>
       <c r="B103" s="142"/>
       <c r="C103" s="142"/>
       <c r="D103" s="142"/>
       <c r="E103" s="142"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="142"/>
       <c r="B104" s="142"/>
       <c r="C104" s="142"/>
       <c r="D104" s="142"/>
       <c r="E104" s="142"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="142"/>
       <c r="B105" s="142"/>
       <c r="C105" s="142"/>
       <c r="D105" s="142"/>
       <c r="E105" s="142"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="142"/>
       <c r="B106" s="142"/>
       <c r="C106" s="142"/>
       <c r="D106" s="142"/>
       <c r="E106" s="142"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="142"/>
       <c r="B107" s="142"/>
       <c r="C107" s="142"/>
       <c r="D107" s="142"/>
       <c r="E107" s="142"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="142"/>
       <c r="B108" s="142"/>
       <c r="C108" s="142"/>
       <c r="D108" s="142"/>
       <c r="E108" s="142"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="142"/>
       <c r="B109" s="142"/>
       <c r="C109" s="142"/>
       <c r="D109" s="142"/>
       <c r="E109" s="142"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="142"/>
       <c r="B110" s="142"/>
       <c r="C110" s="142"/>
       <c r="D110" s="142"/>
       <c r="E110" s="142"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="142"/>
       <c r="B111" s="142"/>
       <c r="C111" s="142"/>
       <c r="D111" s="142"/>
       <c r="E111" s="142"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="142"/>
       <c r="B112" s="142"/>
       <c r="C112" s="142"/>
       <c r="D112" s="142"/>
       <c r="E112" s="142"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="142"/>
       <c r="B113" s="142"/>
       <c r="C113" s="142"/>
       <c r="D113" s="142"/>
       <c r="E113" s="142"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="142"/>
       <c r="B114" s="142"/>
       <c r="C114" s="142"/>
       <c r="D114" s="142"/>
       <c r="E114" s="142"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="142"/>
       <c r="B115" s="142"/>
       <c r="C115" s="142"/>
       <c r="D115" s="142"/>
       <c r="E115" s="142"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="142"/>
       <c r="B116" s="142"/>
       <c r="C116" s="142"/>
       <c r="D116" s="142"/>
       <c r="E116" s="142"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="142"/>
       <c r="B117" s="142"/>
       <c r="C117" s="142"/>
       <c r="D117" s="142"/>
       <c r="E117" s="142"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="142"/>
       <c r="B118" s="142"/>
       <c r="C118" s="142"/>
       <c r="D118" s="142"/>
       <c r="E118" s="142"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="142"/>
       <c r="B119" s="142"/>
       <c r="C119" s="142"/>
       <c r="D119" s="142"/>
       <c r="E119" s="142"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="142"/>
       <c r="B120" s="142"/>
       <c r="C120" s="142"/>
       <c r="D120" s="142"/>
       <c r="E120" s="142"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="142"/>
       <c r="B121" s="142"/>
       <c r="C121" s="142"/>
       <c r="D121" s="142"/>
       <c r="E121" s="142"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="142"/>
       <c r="B122" s="142"/>
       <c r="C122" s="142"/>
       <c r="D122" s="142"/>
       <c r="E122" s="142"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="142"/>
       <c r="B123" s="142"/>
       <c r="C123" s="142"/>
       <c r="D123" s="142"/>
       <c r="E123" s="142"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="142"/>
       <c r="B124" s="142"/>
       <c r="C124" s="142"/>
       <c r="D124" s="142"/>
       <c r="E124" s="142"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="142"/>
       <c r="B125" s="142"/>
       <c r="C125" s="142"/>
       <c r="D125" s="142"/>
       <c r="E125" s="142"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="142"/>
       <c r="B126" s="142"/>
       <c r="C126" s="142"/>
       <c r="D126" s="142"/>
       <c r="E126" s="142"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="142"/>
       <c r="B127" s="142"/>
       <c r="C127" s="142"/>
       <c r="D127" s="142"/>
       <c r="E127" s="142"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="142"/>
       <c r="B128" s="142"/>
       <c r="C128" s="142"/>
       <c r="D128" s="142"/>
       <c r="E128" s="142"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="142"/>
       <c r="B129" s="142"/>
       <c r="C129" s="142"/>
       <c r="D129" s="142"/>
       <c r="E129" s="142"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="142"/>
       <c r="B130" s="142"/>
       <c r="C130" s="142"/>
       <c r="D130" s="142"/>
       <c r="E130" s="142"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="142"/>
       <c r="B131" s="142"/>
       <c r="C131" s="142"/>
       <c r="D131" s="142"/>
       <c r="E131" s="142"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="142"/>
       <c r="B132" s="142"/>
       <c r="C132" s="142"/>
       <c r="D132" s="142"/>
       <c r="E132" s="142"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="142"/>
       <c r="B133" s="142"/>
       <c r="C133" s="142"/>
       <c r="D133" s="142"/>
       <c r="E133" s="142"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="142"/>
       <c r="B134" s="142"/>
       <c r="C134" s="142"/>
       <c r="D134" s="142"/>
       <c r="E134" s="142"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="142"/>
       <c r="B135" s="142"/>
       <c r="C135" s="142"/>
       <c r="D135" s="142"/>
       <c r="E135" s="142"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="142"/>
       <c r="B136" s="142"/>
       <c r="C136" s="142"/>
       <c r="D136" s="142"/>
       <c r="E136" s="142"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="142"/>
       <c r="B137" s="142"/>
       <c r="C137" s="142"/>
       <c r="D137" s="142"/>
       <c r="E137" s="142"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="142"/>
       <c r="B138" s="142"/>
       <c r="C138" s="142"/>
       <c r="D138" s="142"/>
       <c r="E138" s="142"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="142"/>
       <c r="B139" s="142"/>
       <c r="C139" s="142"/>
       <c r="D139" s="142"/>
       <c r="E139" s="142"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="142"/>
       <c r="B140" s="142"/>
       <c r="C140" s="142"/>
       <c r="D140" s="142"/>
       <c r="E140" s="142"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="142"/>
       <c r="B141" s="142"/>
       <c r="C141" s="142"/>
       <c r="D141" s="142"/>
       <c r="E141" s="142"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="142"/>
       <c r="B142" s="142"/>
       <c r="C142" s="142"/>
       <c r="D142" s="142"/>
       <c r="E142" s="142"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="142"/>
       <c r="B143" s="142"/>
       <c r="C143" s="142"/>
       <c r="D143" s="142"/>
       <c r="E143" s="142"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="142"/>
       <c r="B144" s="142"/>
       <c r="C144" s="142"/>
       <c r="D144" s="142"/>
       <c r="E144" s="142"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="142"/>
       <c r="B145" s="142"/>
       <c r="C145" s="142"/>
       <c r="D145" s="142"/>
       <c r="E145" s="142"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="142"/>
       <c r="B146" s="142"/>
       <c r="C146" s="142"/>
       <c r="D146" s="142"/>
       <c r="E146" s="142"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="142"/>
       <c r="B147" s="142"/>
       <c r="C147" s="142"/>
       <c r="D147" s="142"/>
       <c r="E147" s="142"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="142"/>
       <c r="B148" s="142"/>
       <c r="C148" s="142"/>
       <c r="D148" s="142"/>
       <c r="E148" s="142"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="142"/>
       <c r="B149" s="142"/>
       <c r="C149" s="142"/>
       <c r="D149" s="142"/>
       <c r="E149" s="142"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="142"/>
       <c r="B150" s="142"/>
       <c r="C150" s="142"/>
       <c r="D150" s="142"/>
       <c r="E150" s="142"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="142"/>
       <c r="B151" s="142"/>
       <c r="C151" s="142"/>
       <c r="D151" s="142"/>
       <c r="E151" s="142"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="142"/>
       <c r="B152" s="142"/>
       <c r="C152" s="142"/>
       <c r="D152" s="142"/>
       <c r="E152" s="142"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="142"/>
       <c r="B153" s="142"/>
       <c r="C153" s="142"/>
       <c r="D153" s="142"/>
       <c r="E153" s="142"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="142"/>
       <c r="B154" s="142"/>
       <c r="C154" s="142"/>
       <c r="D154" s="142"/>
       <c r="E154" s="142"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="142"/>
       <c r="B155" s="142"/>
       <c r="C155" s="142"/>
       <c r="D155" s="142"/>
       <c r="E155" s="142"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="142"/>
       <c r="B156" s="142"/>
       <c r="C156" s="142"/>
       <c r="D156" s="142"/>
       <c r="E156" s="142"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="142"/>
       <c r="B157" s="142"/>
       <c r="C157" s="142"/>
       <c r="D157" s="142"/>
       <c r="E157" s="142"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="142"/>
       <c r="B158" s="142"/>
       <c r="C158" s="142"/>
       <c r="D158" s="142"/>
       <c r="E158" s="142"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="142"/>
       <c r="B159" s="142"/>
       <c r="C159" s="142"/>
       <c r="D159" s="142"/>
       <c r="E159" s="142"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="142"/>
       <c r="B160" s="142"/>
       <c r="C160" s="142"/>
       <c r="D160" s="142"/>
       <c r="E160" s="142"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="142"/>
       <c r="B161" s="142"/>
       <c r="C161" s="142"/>
       <c r="D161" s="142"/>
       <c r="E161" s="142"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="142"/>
       <c r="B162" s="142"/>
       <c r="C162" s="142"/>
       <c r="D162" s="142"/>
       <c r="E162" s="142"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="142"/>
       <c r="B163" s="142"/>
       <c r="C163" s="142"/>
       <c r="D163" s="142"/>
       <c r="E163" s="142"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="142"/>
       <c r="B164" s="142"/>
       <c r="C164" s="142"/>
       <c r="D164" s="142"/>
       <c r="E164" s="142"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="142"/>
       <c r="B165" s="142"/>
       <c r="C165" s="142"/>
       <c r="D165" s="142"/>
       <c r="E165" s="142"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="142"/>
       <c r="B166" s="142"/>
       <c r="C166" s="142"/>
       <c r="D166" s="142"/>
       <c r="E166" s="142"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="142"/>
       <c r="B167" s="142"/>
       <c r="C167" s="142"/>
       <c r="D167" s="142"/>
       <c r="E167" s="142"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="142"/>
       <c r="B168" s="142"/>
       <c r="C168" s="142"/>
       <c r="D168" s="142"/>
       <c r="E168" s="142"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="142"/>
       <c r="B169" s="142"/>
       <c r="C169" s="142"/>
       <c r="D169" s="142"/>
       <c r="E169" s="142"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="142"/>
       <c r="B170" s="142"/>
       <c r="C170" s="142"/>
       <c r="D170" s="142"/>
       <c r="E170" s="142"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="142"/>
       <c r="B171" s="142"/>
       <c r="C171" s="142"/>
       <c r="D171" s="142"/>
       <c r="E171" s="142"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="142"/>
       <c r="B172" s="142"/>
       <c r="C172" s="142"/>
       <c r="D172" s="142"/>
       <c r="E172" s="142"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="142"/>
       <c r="B173" s="142"/>
       <c r="C173" s="142"/>
       <c r="D173" s="142"/>
       <c r="E173" s="142"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="142"/>
       <c r="B174" s="142"/>
       <c r="C174" s="142"/>
       <c r="D174" s="142"/>
       <c r="E174" s="142"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="142"/>
       <c r="B175" s="142"/>
       <c r="C175" s="142"/>
       <c r="D175" s="142"/>
       <c r="E175" s="142"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="142"/>
       <c r="B176" s="142"/>
       <c r="C176" s="142"/>
       <c r="D176" s="142"/>
       <c r="E176" s="142"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="142"/>
       <c r="B177" s="142"/>
       <c r="C177" s="142"/>
       <c r="D177" s="142"/>
       <c r="E177" s="142"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="142"/>
       <c r="B178" s="142"/>
       <c r="C178" s="142"/>
       <c r="D178" s="142"/>
       <c r="E178" s="142"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="142"/>
       <c r="B179" s="142"/>
       <c r="C179" s="142"/>
       <c r="D179" s="142"/>
       <c r="E179" s="142"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="142"/>
       <c r="B180" s="142"/>
       <c r="C180" s="142"/>
       <c r="D180" s="142"/>
       <c r="E180" s="142"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="142"/>
       <c r="B181" s="142"/>
       <c r="C181" s="142"/>
       <c r="D181" s="142"/>
       <c r="E181" s="142"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="142"/>
       <c r="B182" s="142"/>
       <c r="C182" s="142"/>
       <c r="D182" s="142"/>
       <c r="E182" s="142"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="142"/>
       <c r="B183" s="142"/>
       <c r="C183" s="142"/>
       <c r="D183" s="142"/>
       <c r="E183" s="142"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="142"/>
       <c r="B184" s="142"/>
       <c r="C184" s="142"/>
       <c r="D184" s="142"/>
       <c r="E184" s="142"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="142"/>
       <c r="B185" s="142"/>
       <c r="C185" s="142"/>
       <c r="D185" s="142"/>
       <c r="E185" s="142"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="142"/>
       <c r="B186" s="142"/>
       <c r="C186" s="142"/>
       <c r="D186" s="142"/>
       <c r="E186" s="142"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="142"/>
       <c r="B187" s="142"/>
       <c r="C187" s="142"/>
       <c r="D187" s="142"/>
       <c r="E187" s="142"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="142"/>
       <c r="B188" s="142"/>
       <c r="C188" s="142"/>
       <c r="D188" s="142"/>
       <c r="E188" s="142"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="142"/>
       <c r="B189" s="142"/>
       <c r="C189" s="142"/>
       <c r="D189" s="142"/>
       <c r="E189" s="142"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="142"/>
       <c r="B190" s="142"/>
       <c r="C190" s="142"/>
       <c r="D190" s="142"/>
       <c r="E190" s="142"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="142"/>
       <c r="B191" s="142"/>
       <c r="C191" s="142"/>
       <c r="D191" s="142"/>
       <c r="E191" s="142"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="142"/>
       <c r="B192" s="142"/>
       <c r="C192" s="142"/>
       <c r="D192" s="142"/>
       <c r="E192" s="142"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="142"/>
       <c r="B193" s="142"/>
       <c r="C193" s="142"/>
       <c r="D193" s="142"/>
       <c r="E193" s="142"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="142"/>
       <c r="B194" s="142"/>
       <c r="C194" s="142"/>
       <c r="D194" s="142"/>
       <c r="E194" s="142"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="142"/>
       <c r="B195" s="142"/>
       <c r="C195" s="142"/>
       <c r="D195" s="142"/>
       <c r="E195" s="142"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="142"/>
       <c r="B196" s="142"/>
       <c r="C196" s="142"/>
       <c r="D196" s="142"/>
       <c r="E196" s="142"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="142"/>
       <c r="B197" s="142"/>
       <c r="C197" s="142"/>
       <c r="D197" s="142"/>
       <c r="E197" s="142"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="142"/>
       <c r="B198" s="142"/>
       <c r="C198" s="142"/>
       <c r="D198" s="142"/>
       <c r="E198" s="142"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="142"/>
       <c r="B199" s="142"/>
       <c r="C199" s="142"/>
       <c r="D199" s="142"/>
       <c r="E199" s="142"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="142"/>
       <c r="B200" s="142"/>
       <c r="C200" s="142"/>
       <c r="D200" s="142"/>
       <c r="E200" s="142"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="142"/>
       <c r="B201" s="142"/>
       <c r="C201" s="142"/>
       <c r="D201" s="142"/>
       <c r="E201" s="142"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="142"/>
       <c r="B202" s="142"/>
       <c r="C202" s="142"/>
       <c r="D202" s="142"/>
       <c r="E202" s="142"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="142"/>
       <c r="B203" s="142"/>
       <c r="C203" s="142"/>
       <c r="D203" s="142"/>
       <c r="E203" s="142"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="142"/>
       <c r="B204" s="142"/>
       <c r="C204" s="142"/>
       <c r="D204" s="142"/>
       <c r="E204" s="142"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="142"/>
       <c r="B205" s="142"/>
       <c r="C205" s="142"/>
       <c r="D205" s="142"/>
       <c r="E205" s="142"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="142"/>
       <c r="B206" s="142"/>
       <c r="C206" s="142"/>
       <c r="D206" s="142"/>
       <c r="E206" s="142"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="142"/>
       <c r="B207" s="142"/>
       <c r="C207" s="142"/>
       <c r="D207" s="142"/>
       <c r="E207" s="142"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="142"/>
       <c r="B208" s="142"/>
       <c r="C208" s="142"/>
       <c r="D208" s="142"/>
       <c r="E208" s="142"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="142"/>
       <c r="B209" s="142"/>
       <c r="C209" s="142"/>
       <c r="D209" s="142"/>
       <c r="E209" s="142"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="142"/>
       <c r="B210" s="142"/>
       <c r="C210" s="142"/>
       <c r="D210" s="142"/>
       <c r="E210" s="142"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="142"/>
       <c r="B211" s="142"/>
       <c r="C211" s="142"/>
       <c r="D211" s="142"/>
       <c r="E211" s="142"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="142"/>
       <c r="B212" s="142"/>
       <c r="C212" s="142"/>
       <c r="D212" s="142"/>
       <c r="E212" s="142"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="142"/>
       <c r="B213" s="142"/>
       <c r="C213" s="142"/>
       <c r="D213" s="142"/>
       <c r="E213" s="142"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="142"/>
       <c r="B214" s="142"/>
       <c r="C214" s="142"/>
       <c r="D214" s="142"/>
       <c r="E214" s="142"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="142"/>
       <c r="B215" s="142"/>
       <c r="C215" s="142"/>
       <c r="D215" s="142"/>
       <c r="E215" s="142"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="142"/>
       <c r="B216" s="142"/>
       <c r="C216" s="142"/>
       <c r="D216" s="142"/>
       <c r="E216" s="142"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="142"/>
       <c r="B217" s="142"/>
       <c r="C217" s="142"/>
       <c r="D217" s="142"/>
       <c r="E217" s="142"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="142"/>
       <c r="B218" s="142"/>
       <c r="C218" s="142"/>
       <c r="D218" s="142"/>
       <c r="E218" s="142"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="142"/>
       <c r="B219" s="142"/>
       <c r="C219" s="142"/>
       <c r="D219" s="142"/>
       <c r="E219" s="142"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="142"/>
       <c r="B220" s="142"/>
       <c r="C220" s="142"/>
       <c r="D220" s="142"/>
       <c r="E220" s="142"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="142"/>
       <c r="B221" s="142"/>
       <c r="C221" s="142"/>
       <c r="D221" s="142"/>
       <c r="E221" s="142"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="142"/>
       <c r="B222" s="142"/>
       <c r="C222" s="142"/>
       <c r="D222" s="142"/>
       <c r="E222" s="142"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="142"/>
       <c r="B223" s="142"/>
       <c r="C223" s="142"/>
       <c r="D223" s="142"/>
       <c r="E223" s="142"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="142"/>
       <c r="B224" s="142"/>
       <c r="C224" s="142"/>
       <c r="D224" s="142"/>
       <c r="E224" s="142"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="142"/>
       <c r="B225" s="142"/>
       <c r="C225" s="142"/>
       <c r="D225" s="142"/>
       <c r="E225" s="142"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="142"/>
       <c r="B226" s="142"/>
       <c r="C226" s="142"/>
       <c r="D226" s="142"/>
       <c r="E226" s="142"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="142"/>
       <c r="B227" s="142"/>
       <c r="C227" s="142"/>
       <c r="D227" s="142"/>
       <c r="E227" s="142"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="142"/>
       <c r="B228" s="142"/>
       <c r="C228" s="142"/>
       <c r="D228" s="142"/>
       <c r="E228" s="142"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="142"/>
       <c r="B229" s="142"/>
       <c r="C229" s="142"/>
       <c r="D229" s="142"/>
       <c r="E229" s="142"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="142"/>
       <c r="B230" s="142"/>
       <c r="C230" s="142"/>
       <c r="D230" s="142"/>
       <c r="E230" s="142"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="142"/>
       <c r="B231" s="142"/>
       <c r="C231" s="142"/>
       <c r="D231" s="142"/>
       <c r="E231" s="142"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="142"/>
       <c r="B232" s="142"/>
       <c r="C232" s="142"/>
       <c r="D232" s="142"/>
       <c r="E232" s="142"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="142"/>
       <c r="B233" s="142"/>
       <c r="C233" s="142"/>
       <c r="D233" s="142"/>
       <c r="E233" s="142"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="142"/>
       <c r="B234" s="142"/>
       <c r="C234" s="142"/>
       <c r="D234" s="142"/>
       <c r="E234" s="142"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="142"/>
       <c r="B235" s="142"/>
       <c r="C235" s="142"/>
       <c r="D235" s="142"/>
       <c r="E235" s="142"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="142"/>
       <c r="B236" s="142"/>
       <c r="C236" s="142"/>
       <c r="D236" s="142"/>
       <c r="E236" s="142"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="142"/>
       <c r="B237" s="142"/>
       <c r="C237" s="142"/>
       <c r="D237" s="142"/>
       <c r="E237" s="142"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="142"/>
       <c r="B238" s="142"/>
       <c r="C238" s="142"/>
       <c r="D238" s="142"/>
       <c r="E238" s="142"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="142"/>
       <c r="B239" s="142"/>
       <c r="C239" s="142"/>
       <c r="D239" s="142"/>
       <c r="E239" s="142"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="142"/>
       <c r="B240" s="142"/>
       <c r="C240" s="142"/>
       <c r="D240" s="142"/>
       <c r="E240" s="142"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="142"/>
       <c r="B241" s="142"/>
       <c r="C241" s="142"/>
       <c r="D241" s="142"/>
       <c r="E241" s="142"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="142"/>
       <c r="B242" s="142"/>
       <c r="C242" s="142"/>
       <c r="D242" s="142"/>
       <c r="E242" s="142"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="142"/>
       <c r="B243" s="142"/>
       <c r="C243" s="142"/>
       <c r="D243" s="142"/>
       <c r="E243" s="142"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="142"/>
       <c r="B244" s="142"/>
       <c r="C244" s="142"/>
       <c r="D244" s="142"/>
       <c r="E244" s="142"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="142"/>
       <c r="B245" s="142"/>
       <c r="C245" s="142"/>
       <c r="D245" s="142"/>
       <c r="E245" s="142"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="142"/>
       <c r="B246" s="142"/>
       <c r="C246" s="142"/>
       <c r="D246" s="142"/>
       <c r="E246" s="142"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="142"/>
       <c r="B247" s="142"/>
       <c r="C247" s="142"/>
       <c r="D247" s="142"/>
       <c r="E247" s="142"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="142"/>
       <c r="B248" s="142"/>
       <c r="C248" s="142"/>
       <c r="D248" s="142"/>
       <c r="E248" s="142"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="142"/>
       <c r="B249" s="142"/>
       <c r="C249" s="142"/>
       <c r="D249" s="142"/>
       <c r="E249" s="142"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="142"/>
       <c r="B250" s="142"/>
       <c r="C250" s="142"/>
       <c r="D250" s="142"/>
       <c r="E250" s="142"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="142"/>
       <c r="B251" s="142"/>
       <c r="C251" s="142"/>
       <c r="D251" s="142"/>
       <c r="E251" s="142"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="142"/>
       <c r="B252" s="142"/>
       <c r="C252" s="142"/>
       <c r="D252" s="142"/>
       <c r="E252" s="142"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="142"/>
       <c r="B253" s="142"/>
       <c r="C253" s="142"/>
       <c r="D253" s="142"/>
       <c r="E253" s="142"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="142"/>
       <c r="B254" s="142"/>
       <c r="C254" s="142"/>
       <c r="D254" s="142"/>
       <c r="E254" s="142"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="142"/>
       <c r="B255" s="142"/>
       <c r="C255" s="142"/>
       <c r="D255" s="142"/>
       <c r="E255" s="142"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="142"/>
       <c r="B256" s="142"/>
       <c r="C256" s="142"/>
       <c r="D256" s="142"/>
       <c r="E256" s="142"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="142"/>
       <c r="B257" s="142"/>
       <c r="C257" s="142"/>
       <c r="D257" s="142"/>
       <c r="E257" s="142"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="142"/>
       <c r="B258" s="142"/>
       <c r="C258" s="142"/>
       <c r="D258" s="142"/>
       <c r="E258" s="142"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="142"/>
       <c r="B259" s="142"/>
       <c r="C259" s="142"/>
       <c r="D259" s="142"/>
       <c r="E259" s="142"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="142"/>
       <c r="B260" s="142"/>
       <c r="C260" s="142"/>
       <c r="D260" s="142"/>
       <c r="E260" s="142"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="142"/>
       <c r="B261" s="142"/>
       <c r="C261" s="142"/>
       <c r="D261" s="142"/>
       <c r="E261" s="142"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="142"/>
       <c r="B262" s="142"/>
       <c r="C262" s="142"/>
       <c r="D262" s="142"/>
       <c r="E262" s="142"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="142"/>
       <c r="B263" s="142"/>
       <c r="C263" s="142"/>
       <c r="D263" s="142"/>
       <c r="E263" s="142"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="142"/>
       <c r="B264" s="142"/>
       <c r="C264" s="142"/>
       <c r="D264" s="142"/>
       <c r="E264" s="142"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="142"/>
       <c r="B265" s="142"/>
       <c r="C265" s="142"/>
       <c r="D265" s="142"/>
       <c r="E265" s="142"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="142"/>
       <c r="B266" s="142"/>
       <c r="C266" s="142"/>
       <c r="D266" s="142"/>
       <c r="E266" s="142"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="142"/>
       <c r="B267" s="142"/>
       <c r="C267" s="142"/>
       <c r="D267" s="142"/>
       <c r="E267" s="142"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="142"/>
       <c r="B268" s="142"/>
       <c r="C268" s="142"/>
       <c r="D268" s="142"/>
       <c r="E268" s="142"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="142"/>
       <c r="B269" s="142"/>
       <c r="C269" s="142"/>
       <c r="D269" s="142"/>
       <c r="E269" s="142"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="142"/>
       <c r="B270" s="142"/>
       <c r="C270" s="142"/>
       <c r="D270" s="142"/>
       <c r="E270" s="142"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="142"/>
       <c r="B271" s="142"/>
       <c r="C271" s="142"/>
       <c r="D271" s="142"/>
       <c r="E271" s="142"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="142"/>
       <c r="B272" s="142"/>
       <c r="C272" s="142"/>
       <c r="D272" s="142"/>
       <c r="E272" s="142"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="142"/>
       <c r="B273" s="142"/>
       <c r="C273" s="142"/>
       <c r="D273" s="142"/>
       <c r="E273" s="142"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="142"/>
       <c r="B274" s="142"/>
       <c r="C274" s="142"/>
       <c r="D274" s="142"/>
       <c r="E274" s="142"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="142"/>
       <c r="B275" s="142"/>
       <c r="C275" s="142"/>
       <c r="D275" s="142"/>
       <c r="E275" s="142"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="142"/>
       <c r="B276" s="142"/>
       <c r="C276" s="142"/>
       <c r="D276" s="142"/>
       <c r="E276" s="142"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="142"/>
       <c r="B277" s="142"/>
       <c r="C277" s="142"/>
       <c r="D277" s="142"/>
       <c r="E277" s="142"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="142"/>
       <c r="B278" s="142"/>
       <c r="C278" s="142"/>
       <c r="D278" s="142"/>
       <c r="E278" s="142"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="142"/>
       <c r="B279" s="142"/>
       <c r="C279" s="142"/>
       <c r="D279" s="142"/>
       <c r="E279" s="142"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="142"/>
       <c r="B280" s="142"/>
       <c r="C280" s="142"/>
       <c r="D280" s="142"/>
       <c r="E280" s="142"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="142"/>
       <c r="B281" s="142"/>
       <c r="C281" s="142"/>
       <c r="D281" s="142"/>
       <c r="E281" s="142"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="142"/>
       <c r="B282" s="142"/>
       <c r="C282" s="142"/>
       <c r="D282" s="142"/>
       <c r="E282" s="142"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="142"/>
       <c r="B283" s="142"/>
       <c r="C283" s="142"/>
       <c r="D283" s="142"/>
       <c r="E283" s="142"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="142"/>
       <c r="B284" s="142"/>
       <c r="C284" s="142"/>
       <c r="D284" s="142"/>
       <c r="E284" s="142"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="142"/>
       <c r="B285" s="142"/>
       <c r="C285" s="142"/>
       <c r="D285" s="142"/>
       <c r="E285" s="142"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="142"/>
       <c r="B286" s="142"/>
       <c r="C286" s="142"/>
       <c r="D286" s="142"/>
       <c r="E286" s="142"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="142"/>
       <c r="B287" s="142"/>
       <c r="C287" s="142"/>
       <c r="D287" s="142"/>
       <c r="E287" s="142"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="142"/>
       <c r="B288" s="142"/>
       <c r="C288" s="142"/>
       <c r="D288" s="142"/>
       <c r="E288" s="142"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="142"/>
       <c r="B289" s="142"/>
       <c r="C289" s="142"/>
       <c r="D289" s="142"/>
       <c r="E289" s="142"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="142"/>
       <c r="B290" s="142"/>
       <c r="C290" s="142"/>
       <c r="D290" s="142"/>
       <c r="E290" s="142"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="142"/>
       <c r="B291" s="142"/>
       <c r="C291" s="142"/>
       <c r="D291" s="142"/>
       <c r="E291" s="142"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="142"/>
       <c r="B292" s="142"/>
       <c r="C292" s="142"/>
       <c r="D292" s="142"/>
       <c r="E292" s="142"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="142"/>
       <c r="B293" s="142"/>
       <c r="C293" s="142"/>
       <c r="D293" s="142"/>
       <c r="E293" s="142"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="142"/>
       <c r="B294" s="142"/>
       <c r="C294" s="142"/>
       <c r="D294" s="142"/>
       <c r="E294" s="142"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="142"/>
       <c r="B295" s="142"/>
       <c r="C295" s="142"/>
       <c r="D295" s="142"/>
       <c r="E295" s="142"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="142"/>
       <c r="B296" s="142"/>
       <c r="C296" s="142"/>
       <c r="D296" s="142"/>
       <c r="E296" s="142"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="142"/>
       <c r="B297" s="142"/>
       <c r="C297" s="142"/>
       <c r="D297" s="142"/>
       <c r="E297" s="142"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="142"/>
       <c r="B298" s="142"/>
       <c r="C298" s="142"/>
       <c r="D298" s="142"/>
       <c r="E298" s="142"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="142"/>
       <c r="B299" s="142"/>
       <c r="C299" s="142"/>
       <c r="D299" s="142"/>
       <c r="E299" s="142"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="142"/>
       <c r="B300" s="142"/>
       <c r="C300" s="142"/>
       <c r="D300" s="142"/>
       <c r="E300" s="142"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="142"/>
       <c r="B301" s="142"/>
       <c r="C301" s="142"/>
       <c r="D301" s="142"/>
       <c r="E301" s="142"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="142"/>
       <c r="B302" s="142"/>
       <c r="C302" s="142"/>
       <c r="D302" s="142"/>
       <c r="E302" s="142"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="142"/>
       <c r="B303" s="142"/>
       <c r="C303" s="142"/>
       <c r="D303" s="142"/>
       <c r="E303" s="142"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="142"/>
       <c r="B304" s="142"/>
       <c r="C304" s="142"/>
       <c r="D304" s="142"/>
       <c r="E304" s="142"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="142"/>
       <c r="B305" s="142"/>
       <c r="C305" s="142"/>
       <c r="D305" s="142"/>
       <c r="E305" s="142"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="142"/>
       <c r="B306" s="142"/>
       <c r="C306" s="142"/>
       <c r="D306" s="142"/>
       <c r="E306" s="142"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="142"/>
       <c r="B307" s="142"/>
       <c r="C307" s="142"/>
       <c r="D307" s="142"/>
       <c r="E307" s="142"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="142"/>
       <c r="B308" s="142"/>
       <c r="C308" s="142"/>
       <c r="D308" s="142"/>
       <c r="E308" s="142"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="142"/>
       <c r="B309" s="142"/>
       <c r="C309" s="142"/>
       <c r="D309" s="142"/>
       <c r="E309" s="142"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="142"/>
       <c r="B310" s="142"/>
       <c r="C310" s="142"/>
       <c r="D310" s="142"/>
       <c r="E310" s="142"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="142"/>
       <c r="B311" s="142"/>
       <c r="C311" s="142"/>
       <c r="D311" s="142"/>
       <c r="E311" s="142"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="142"/>
       <c r="B312" s="142"/>
       <c r="C312" s="142"/>
       <c r="D312" s="142"/>
       <c r="E312" s="142"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="142"/>
       <c r="B313" s="142"/>
       <c r="C313" s="142"/>
       <c r="D313" s="142"/>
       <c r="E313" s="142"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="142"/>
       <c r="B314" s="142"/>
       <c r="C314" s="142"/>
       <c r="D314" s="142"/>
       <c r="E314" s="142"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="142"/>
       <c r="B315" s="142"/>
       <c r="C315" s="142"/>
       <c r="D315" s="142"/>
       <c r="E315" s="142"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="142"/>
       <c r="B316" s="142"/>
       <c r="C316" s="142"/>
       <c r="D316" s="142"/>
       <c r="E316" s="142"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="142"/>
       <c r="B317" s="142"/>
       <c r="C317" s="142"/>
       <c r="D317" s="142"/>
       <c r="E317" s="142"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="142"/>
       <c r="B318" s="142"/>
       <c r="C318" s="142"/>
       <c r="D318" s="142"/>
       <c r="E318" s="142"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="142"/>
       <c r="B319" s="142"/>
       <c r="C319" s="142"/>
       <c r="D319" s="142"/>
       <c r="E319" s="142"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="142"/>
       <c r="B320" s="142"/>
       <c r="C320" s="142"/>
@@ -5077,6 +5077,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -5093,24 +5097,20 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -5120,13 +5120,13 @@
     <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="26.25">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="177"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="189"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -5140,13 +5140,13 @@
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:19" ht="18">
-      <c r="A2" s="178" t="s">
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
       <c r="E2" s="14"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -5161,7 +5161,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="143" t="s">
         <v>12</v>
       </c>
@@ -5188,7 +5188,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="47"/>
       <c r="C4" s="52"/>
@@ -5210,7 +5210,7 @@
       <c r="R4" s="41"/>
       <c r="S4" s="41"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
@@ -5234,7 +5234,7 @@
       <c r="R5" s="41"/>
       <c r="S5" s="41"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="52"/>
       <c r="C6" s="48"/>
@@ -5258,7 +5258,7 @@
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
       <c r="B7" s="52"/>
       <c r="C7" s="48"/>
@@ -5282,7 +5282,7 @@
       <c r="R7" s="41"/>
       <c r="S7" s="41"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -5306,7 +5306,7 @@
       <c r="R8" s="41"/>
       <c r="S8" s="41"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="60"/>
       <c r="B9" s="60"/>
       <c r="C9" s="61"/>
@@ -5330,7 +5330,7 @@
       <c r="R9" s="41"/>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="60"/>
       <c r="B10" s="60"/>
       <c r="C10" s="67"/>
@@ -5352,7 +5352,7 @@
       <c r="R10" s="41"/>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="64"/>
       <c r="C11" s="67"/>
@@ -5376,7 +5376,7 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="64"/>
       <c r="C12" s="61"/>
@@ -5400,7 +5400,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -5424,7 +5424,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
@@ -5448,7 +5448,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="48"/>
       <c r="C15" s="67"/>
@@ -5472,7 +5472,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="52"/>
       <c r="C16" s="48"/>
@@ -5496,7 +5496,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="52"/>
       <c r="C17" s="48"/>
@@ -5520,7 +5520,7 @@
       <c r="R17" s="57"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -5544,7 +5544,7 @@
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
@@ -5568,7 +5568,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="60"/>
       <c r="B20" s="60"/>
       <c r="C20" s="67"/>
@@ -5592,7 +5592,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
       <c r="B21" s="52"/>
       <c r="C21" s="48"/>
@@ -5616,7 +5616,7 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="52"/>
       <c r="C22" s="48"/>
@@ -5640,7 +5640,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="52"/>
       <c r="C23" s="48"/>
@@ -5664,7 +5664,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
       <c r="B24" s="52"/>
       <c r="C24" s="48"/>
@@ -5688,7 +5688,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="52"/>
       <c r="C25" s="48"/>
@@ -5712,7 +5712,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="52"/>
       <c r="C26" s="61"/>
@@ -5734,7 +5734,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="51"/>
       <c r="B27" s="52"/>
       <c r="C27" s="61"/>
@@ -5756,7 +5756,7 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="51"/>
       <c r="B28" s="52"/>
       <c r="C28" s="48"/>
@@ -5778,7 +5778,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
       <c r="B29" s="52"/>
       <c r="C29" s="61"/>
@@ -5800,7 +5800,7 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
       <c r="B30" s="52"/>
       <c r="C30" s="48"/>
@@ -5822,7 +5822,7 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
       <c r="B31" s="74"/>
       <c r="C31" s="48"/>
@@ -5844,7 +5844,7 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="74"/>
       <c r="C32" s="61"/>
@@ -5866,7 +5866,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="51"/>
       <c r="B33" s="74"/>
       <c r="C33" s="75"/>
@@ -5888,7 +5888,7 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
       <c r="B34" s="74"/>
       <c r="C34" s="75"/>
@@ -5910,7 +5910,7 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="76"/>
       <c r="C35" s="75"/>
@@ -5932,7 +5932,7 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="51"/>
       <c r="B36" s="52"/>
       <c r="C36" s="77"/>
@@ -5954,7 +5954,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="52"/>
       <c r="C37" s="48"/>
@@ -5976,7 +5976,7 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
       <c r="B38" s="52"/>
       <c r="C38" s="48"/>
@@ -5998,7 +5998,7 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="51"/>
       <c r="B39" s="52"/>
       <c r="C39" s="48"/>
@@ -6020,7 +6020,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
       <c r="B40" s="52"/>
       <c r="C40" s="48"/>
@@ -6042,7 +6042,7 @@
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
       <c r="B41" s="52"/>
       <c r="C41" s="48"/>
@@ -6064,7 +6064,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="51"/>
       <c r="B42" s="64"/>
       <c r="C42" s="79"/>
@@ -6086,7 +6086,7 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="51"/>
       <c r="B43" s="52"/>
       <c r="C43" s="48"/>
@@ -6108,7 +6108,7 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="51"/>
       <c r="B44" s="64"/>
       <c r="C44" s="80"/>
@@ -6130,7 +6130,7 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="51"/>
       <c r="B45" s="52"/>
       <c r="C45" s="48"/>
@@ -6152,7 +6152,7 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="51"/>
       <c r="B46" s="74"/>
       <c r="C46" s="48"/>
@@ -6174,7 +6174,7 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="51"/>
       <c r="B47" s="52"/>
       <c r="C47" s="48"/>
@@ -6196,7 +6196,7 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="51"/>
       <c r="B48" s="52"/>
       <c r="C48" s="48"/>
@@ -6218,7 +6218,7 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="51"/>
       <c r="B49" s="52"/>
       <c r="C49" s="48"/>
@@ -6240,7 +6240,7 @@
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="82"/>
       <c r="B50" s="52"/>
       <c r="C50" s="48"/>
@@ -6262,7 +6262,7 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="82"/>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -6284,7 +6284,7 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="82"/>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
@@ -6306,7 +6306,7 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="82"/>
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
@@ -6328,7 +6328,7 @@
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="82"/>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -6350,7 +6350,7 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="82"/>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -6372,7 +6372,7 @@
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="82"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -6394,7 +6394,7 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="82"/>
       <c r="B57" s="52"/>
       <c r="C57" s="48"/>
@@ -6416,7 +6416,7 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="82"/>
       <c r="B58" s="52"/>
       <c r="C58" s="48"/>
@@ -6438,7 +6438,7 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="82"/>
       <c r="B59" s="52"/>
       <c r="C59" s="48"/>
@@ -6460,7 +6460,7 @@
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="82"/>
       <c r="B60" s="64"/>
       <c r="C60" s="48"/>
@@ -6482,7 +6482,7 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="82"/>
       <c r="B61" s="64"/>
       <c r="C61" s="48"/>
@@ -6504,7 +6504,7 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="82"/>
       <c r="B62" s="52"/>
       <c r="C62" s="48"/>
@@ -6526,7 +6526,7 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="82"/>
       <c r="B63" s="52"/>
       <c r="C63" s="48"/>
@@ -6548,7 +6548,7 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="82"/>
       <c r="B64" s="52"/>
       <c r="C64" s="48"/>
@@ -6570,7 +6570,7 @@
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="82"/>
       <c r="B65" s="52"/>
       <c r="C65" s="48"/>
@@ -6592,7 +6592,7 @@
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="82"/>
       <c r="B66" s="52"/>
       <c r="C66" s="48"/>
@@ -6614,7 +6614,7 @@
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="82"/>
       <c r="B67" s="52"/>
       <c r="C67" s="48"/>
@@ -6636,7 +6636,7 @@
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="82"/>
       <c r="B68" s="52"/>
       <c r="C68" s="48"/>
@@ -6658,7 +6658,7 @@
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="82"/>
       <c r="B69" s="52"/>
       <c r="C69" s="48"/>
@@ -6680,7 +6680,7 @@
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="82"/>
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
@@ -6702,7 +6702,7 @@
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="82"/>
       <c r="B71" s="52"/>
       <c r="C71" s="48"/>
@@ -6724,7 +6724,7 @@
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="82"/>
       <c r="B72" s="52"/>
       <c r="C72" s="48"/>
@@ -6746,7 +6746,7 @@
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="82"/>
       <c r="B73" s="52"/>
       <c r="C73" s="48"/>
@@ -6768,7 +6768,7 @@
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="82"/>
       <c r="B74" s="52"/>
       <c r="C74" s="48"/>
@@ -6790,7 +6790,7 @@
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="82"/>
       <c r="B75" s="52"/>
       <c r="C75" s="48"/>
@@ -6812,7 +6812,7 @@
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="82"/>
       <c r="B76" s="52"/>
       <c r="C76" s="48"/>
@@ -6834,7 +6834,7 @@
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="82"/>
       <c r="B77" s="52"/>
       <c r="C77" s="48"/>
@@ -6856,7 +6856,7 @@
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="82"/>
       <c r="B78" s="52"/>
       <c r="C78" s="48"/>
@@ -6878,7 +6878,7 @@
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="82"/>
       <c r="B79" s="52"/>
       <c r="C79" s="48"/>
@@ -6900,7 +6900,7 @@
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="82"/>
       <c r="B80" s="52"/>
       <c r="C80" s="48"/>
@@ -6922,7 +6922,7 @@
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="82"/>
       <c r="B81" s="52"/>
       <c r="C81" s="48"/>
@@ -6944,7 +6944,7 @@
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="82"/>
       <c r="B82" s="52"/>
       <c r="C82" s="48"/>
@@ -6966,7 +6966,7 @@
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="83"/>
       <c r="B83" s="52">
         <f>SUM(B4:B72)</f>
@@ -6992,7 +6992,7 @@
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D84" s="85"/>
       <c r="I84" s="8"/>
       <c r="J84" s="9"/>
@@ -7004,11 +7004,11 @@
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I85" s="8"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S89">
         <v>3381</v>
       </c>
@@ -7023,14 +7023,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
@@ -7047,28 +7047,28 @@
     <col min="13" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="179" t="s">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="181"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="193"/>
       <c r="G1" s="23"/>
       <c r="H1" s="144"/>
       <c r="I1" s="144"/>
     </row>
-    <row r="2" spans="1:12" ht="21.75">
-      <c r="A2" s="182" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="184"/>
-    </row>
-    <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1">
+    <row r="2" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="194" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="196"/>
+    </row>
+    <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
@@ -7084,18 +7084,18 @@
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:12" ht="22.5">
+    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="86"/>
       <c r="B4" s="21"/>
       <c r="C4" s="39"/>
       <c r="D4" s="20"/>
       <c r="E4" s="87"/>
       <c r="F4" s="30"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-    </row>
-    <row r="5" spans="1:12" ht="22.5">
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="197"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
         <v>8</v>
       </c>
@@ -7114,9 +7114,9 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" ht="21.75">
+    <row r="6" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A6" s="88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="32">
         <v>0</v>
@@ -7133,7 +7133,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" ht="21.75">
+    <row r="7" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A7" s="88"/>
       <c r="B7" s="32"/>
       <c r="C7" s="39"/>
@@ -7148,9 +7148,9 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" ht="21.75">
+    <row r="8" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="32">
         <v>0</v>
@@ -7167,7 +7167,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" ht="22.5">
+    <row r="9" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="88" t="s">
         <v>9</v>
       </c>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="87">
         <v>0</v>
@@ -7186,7 +7186,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" ht="21.75">
+    <row r="10" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A10" s="88"/>
       <c r="B10" s="33"/>
       <c r="C10" s="39"/>
@@ -7197,7 +7197,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" ht="21.75">
+    <row r="11" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A11" s="88"/>
       <c r="B11" s="32"/>
       <c r="C11" s="39"/>
@@ -7218,9 +7218,9 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="21.75">
+    <row r="12" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="40">
         <f>B6-B8-B9</f>
@@ -7238,7 +7238,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" ht="21.75">
+    <row r="13" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A13" s="88"/>
       <c r="B13" s="32"/>
       <c r="C13" s="39"/>
@@ -7249,7 +7249,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" s="27" customFormat="1" ht="21.75">
+    <row r="14" spans="1:12" s="27" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A14" s="88"/>
       <c r="B14" s="32"/>
       <c r="C14" s="39"/>
@@ -7260,9 +7260,9 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" ht="21.75">
+    <row r="15" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A15" s="88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="32">
         <f>B5+B12-B13</f>
@@ -7281,7 +7281,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:12" ht="22.5" thickBot="1">
+    <row r="16" spans="1:12" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="94"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
@@ -7292,55 +7292,55 @@
       <c r="K16" s="148"/>
       <c r="L16" s="149"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A17" s="186"/>
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="188"/>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="198"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="200"/>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="29"/>
       <c r="D18" s="14"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="29"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="29"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="28"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C21" s="29"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
       <c r="E22" s="18"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="8"/>
       <c r="C25" s="29"/>
@@ -7350,32 +7350,32 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="8"/>
       <c r="C26" s="29"/>
       <c r="D26" s="7"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="29"/>
       <c r="D27" s="12"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="29"/>
       <c r="D28" s="7"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="29"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="29"/>
       <c r="D30" s="7"/>
@@ -7393,105 +7393,105 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="189" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="191"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="192"/>
-      <c r="B2" s="193"/>
-      <c r="C2" s="194"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="195" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="203"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="204"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="206"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="207" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="208"/>
+      <c r="C3" s="209"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="210"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="197"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="198"/>
-      <c r="B4" s="199"/>
-      <c r="C4" s="200"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75">
-      <c r="A5" s="201" t="s">
+      <c r="B5" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="202" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="203" t="s">
+      <c r="C5" s="152" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" s="204"/>
-      <c r="B6" s="205"/>
-      <c r="C6" s="206"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" s="204"/>
-      <c r="B7" s="205"/>
-      <c r="C7" s="206"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="204"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="206"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75">
-      <c r="A9" s="204"/>
-      <c r="B9" s="214"/>
-      <c r="C9" s="206"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75">
-      <c r="A10" s="204"/>
-      <c r="B10" s="205"/>
-      <c r="C10" s="206"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75">
-      <c r="A11" s="204"/>
-      <c r="B11" s="205"/>
-      <c r="C11" s="206"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="204"/>
-      <c r="B12" s="205"/>
-      <c r="C12" s="206"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75">
-      <c r="A13" s="204"/>
-      <c r="B13" s="205"/>
-      <c r="C13" s="206"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="204"/>
-      <c r="B14" s="205"/>
-      <c r="C14" s="206"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="204"/>
-      <c r="B15" s="205"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="213"/>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="153"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="155"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="153"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="155"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="153"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="155"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="153"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="155"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="153"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="153"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="155"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="153"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="155"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="153"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="155"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="153"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="155"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="153"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="160"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -7501,11 +7501,11 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="204"/>
-      <c r="B16" s="205"/>
-      <c r="C16" s="206"/>
-      <c r="D16" s="213"/>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="153"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="160"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -7515,11 +7515,11 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A17" s="204"/>
-      <c r="B17" s="205"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="213"/>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="153"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="160"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -7529,11 +7529,11 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A18" s="204"/>
-      <c r="B18" s="205"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="213"/>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="153"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="160"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -7543,11 +7543,11 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" s="204"/>
-      <c r="B19" s="205"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="213"/>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="153"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -7557,11 +7557,11 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="204"/>
-      <c r="B20" s="205"/>
-      <c r="C20" s="206"/>
-      <c r="D20" s="213"/>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="153"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="160"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -7571,50 +7571,50 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
-      <c r="A21" s="204"/>
-      <c r="B21" s="205"/>
-      <c r="C21" s="206"/>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="A22" s="204"/>
-      <c r="B22" s="205"/>
-      <c r="C22" s="206"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="204"/>
-      <c r="B23" s="205"/>
-      <c r="C23" s="206"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75">
-      <c r="A24" s="204"/>
-      <c r="B24" s="205"/>
-      <c r="C24" s="206"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75">
-      <c r="A25" s="204"/>
-      <c r="B25" s="205"/>
-      <c r="C25" s="206"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="204"/>
-      <c r="B26" s="205"/>
-      <c r="C26" s="206"/>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A27" s="207"/>
-      <c r="B27" s="208"/>
-      <c r="C27" s="209"/>
-    </row>
-    <row r="28" spans="1:12" ht="23.25">
-      <c r="A28" s="210" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="211">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="153"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="155"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="153"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="155"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="153"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="155"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="153"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="153"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="155"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="153"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="156"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="158"/>
+    </row>
+    <row r="28" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="159" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="213">
         <f>SUM(B6:B27)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="212"/>
+      <c r="C28" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7624,7 +7624,7 @@
     <mergeCell ref="B28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:C26">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G$17=A5</formula>
     </cfRule>
   </conditionalFormatting>
